--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ceacam1-Sele.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ceacam1-Sele.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>43.64525366666667</v>
+        <v>22.320355</v>
       </c>
       <c r="H2">
-        <v>130.935761</v>
+        <v>66.961065</v>
       </c>
       <c r="I2">
-        <v>0.5421200012818527</v>
+        <v>0.4795709034536316</v>
       </c>
       <c r="J2">
-        <v>0.5463095076486307</v>
+        <v>0.480894303533459</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,33 +558,33 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.112632333333334</v>
+        <v>11.028698</v>
       </c>
       <c r="N2">
-        <v>27.337897</v>
+        <v>33.086094</v>
       </c>
       <c r="O2">
-        <v>0.9981738658344552</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.9981738658344552</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>397.7231497594019</v>
+        <v>246.16445454779</v>
       </c>
       <c r="R2">
-        <v>3579.508347834618</v>
+        <v>2215.48009093011</v>
       </c>
       <c r="S2">
-        <v>0.5411300174256867</v>
+        <v>0.4795709034536316</v>
       </c>
       <c r="T2">
-        <v>0.5453118731917517</v>
+        <v>0.480894303533459</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -593,7 +593,7 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -602,51 +602,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>43.64525366666667</v>
+        <v>0.161567</v>
       </c>
       <c r="H3">
-        <v>130.935761</v>
+        <v>0.484701</v>
       </c>
       <c r="I3">
-        <v>0.5421200012818527</v>
+        <v>0.003471397841042084</v>
       </c>
       <c r="J3">
-        <v>0.5463095076486307</v>
+        <v>0.003480977338352835</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.01667133333333333</v>
+        <v>11.028698</v>
       </c>
       <c r="N3">
-        <v>0.050014</v>
+        <v>33.086094</v>
       </c>
       <c r="O3">
-        <v>0.001826134165544791</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.001826134165544791</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.727624572294889</v>
+        <v>1.781873649766</v>
       </c>
       <c r="R3">
-        <v>6.548621150654</v>
+        <v>16.036862847894</v>
       </c>
       <c r="S3">
-        <v>0.0009899838561659769</v>
+        <v>0.003471397841042084</v>
       </c>
       <c r="T3">
-        <v>0.0009976344568791177</v>
+        <v>0.003480977338352835</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.161567</v>
+        <v>16.184686</v>
       </c>
       <c r="H4">
-        <v>0.484701</v>
+        <v>48.554058</v>
       </c>
       <c r="I4">
-        <v>0.002006832241508989</v>
+        <v>0.3477410859788449</v>
       </c>
       <c r="J4">
-        <v>0.00202234105216526</v>
+        <v>0.3487006950327504</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,33 +682,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.112632333333334</v>
+        <v>11.028698</v>
       </c>
       <c r="N4">
-        <v>27.337897</v>
+        <v>33.086094</v>
       </c>
       <c r="O4">
-        <v>0.9981738658344552</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.9981738658344552</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>1.472300668199667</v>
+        <v>178.496014118828</v>
       </c>
       <c r="R4">
-        <v>13.250706013797</v>
+        <v>1606.464127069452</v>
       </c>
       <c r="S4">
-        <v>0.002003167496588253</v>
+        <v>0.3477410859788449</v>
       </c>
       <c r="T4">
-        <v>0.002018647986075517</v>
+        <v>0.3487006950327504</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,60 +717,60 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.161567</v>
+        <v>0.3842475</v>
       </c>
       <c r="H5">
-        <v>0.484701</v>
+        <v>0.7684949999999999</v>
       </c>
       <c r="I5">
-        <v>0.002006832241508989</v>
+        <v>0.008255868722733095</v>
       </c>
       <c r="J5">
-        <v>0.00202234105216526</v>
+        <v>0.005519100805728606</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.01667133333333333</v>
+        <v>11.028698</v>
       </c>
       <c r="N5">
-        <v>0.050014</v>
+        <v>33.086094</v>
       </c>
       <c r="O5">
-        <v>0.001826134165544791</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.001826134165544791</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.002693537312666667</v>
+        <v>4.237749634755</v>
       </c>
       <c r="R5">
-        <v>0.024241835814</v>
+        <v>25.42649780853</v>
       </c>
       <c r="S5">
-        <v>3.6647449207364E-06</v>
+        <v>0.008255868722733095</v>
       </c>
       <c r="T5">
-        <v>3.69306608974278E-06</v>
+        <v>0.005519100805728606</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.44622</v>
+        <v>7.491490666666667</v>
       </c>
       <c r="H6">
-        <v>31.33866</v>
+        <v>22.474472</v>
       </c>
       <c r="I6">
-        <v>0.1297530504242576</v>
+        <v>0.1609607440037482</v>
       </c>
       <c r="J6">
-        <v>0.1307557827152189</v>
+        <v>0.1614049232897091</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,338 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.112632333333334</v>
+        <v>11.028698</v>
       </c>
       <c r="N6">
-        <v>27.337897</v>
+        <v>33.086094</v>
       </c>
       <c r="O6">
-        <v>0.9981738658344552</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0.9981738658344552</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>95.19256213311333</v>
+        <v>82.62138813248535</v>
       </c>
       <c r="R6">
-        <v>856.73305919802</v>
+        <v>743.5924931923681</v>
       </c>
       <c r="S6">
-        <v>0.1295161039457942</v>
+        <v>0.1609607440037482</v>
       </c>
       <c r="T6">
-        <v>0.1305170051130601</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>10.44622</v>
-      </c>
-      <c r="H7">
-        <v>31.33866</v>
-      </c>
-      <c r="I7">
-        <v>0.1297530504242576</v>
-      </c>
-      <c r="J7">
-        <v>0.1307557827152189</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.01667133333333333</v>
-      </c>
-      <c r="N7">
-        <v>0.050014</v>
-      </c>
-      <c r="O7">
-        <v>0.001826134165544791</v>
-      </c>
-      <c r="P7">
-        <v>0.001826134165544791</v>
-      </c>
-      <c r="Q7">
-        <v>0.1741524156933333</v>
-      </c>
-      <c r="R7">
-        <v>1.56737174124</v>
-      </c>
-      <c r="S7">
-        <v>0.0002369464784633929</v>
-      </c>
-      <c r="T7">
-        <v>0.0002387776021588123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1.852196</v>
-      </c>
-      <c r="H8">
-        <v>3.704392</v>
-      </c>
-      <c r="I8">
-        <v>0.02300622435518382</v>
-      </c>
-      <c r="J8">
-        <v>0.01545601105612031</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>9.112632333333334</v>
-      </c>
-      <c r="N8">
-        <v>27.337897</v>
-      </c>
-      <c r="O8">
-        <v>0.9981738658344552</v>
-      </c>
-      <c r="P8">
-        <v>0.9981738658344552</v>
-      </c>
-      <c r="Q8">
-        <v>16.87838115727067</v>
-      </c>
-      <c r="R8">
-        <v>101.270286943624</v>
-      </c>
-      <c r="S8">
-        <v>0.02296421190286863</v>
-      </c>
-      <c r="T8">
-        <v>0.01542778630626769</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1.852196</v>
-      </c>
-      <c r="H9">
-        <v>3.704392</v>
-      </c>
-      <c r="I9">
-        <v>0.02300622435518382</v>
-      </c>
-      <c r="J9">
-        <v>0.01545601105612031</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.01667133333333333</v>
-      </c>
-      <c r="N9">
-        <v>0.050014</v>
-      </c>
-      <c r="O9">
-        <v>0.001826134165544791</v>
-      </c>
-      <c r="P9">
-        <v>0.001826134165544791</v>
-      </c>
-      <c r="Q9">
-        <v>0.03087857691466667</v>
-      </c>
-      <c r="R9">
-        <v>0.185271461488</v>
-      </c>
-      <c r="S9">
-        <v>4.201245231518984E-05</v>
-      </c>
-      <c r="T9">
-        <v>2.822474985261932E-05</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>24.40323666666667</v>
-      </c>
-      <c r="H10">
-        <v>73.20971</v>
-      </c>
-      <c r="I10">
-        <v>0.303113891697197</v>
-      </c>
-      <c r="J10">
-        <v>0.3054563575278647</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>9.112632333333334</v>
-      </c>
-      <c r="N10">
-        <v>27.337897</v>
-      </c>
-      <c r="O10">
-        <v>0.9981738658344552</v>
-      </c>
-      <c r="P10">
-        <v>0.9981738658344552</v>
-      </c>
-      <c r="Q10">
-        <v>222.3777234866523</v>
-      </c>
-      <c r="R10">
-        <v>2001.39951137987</v>
-      </c>
-      <c r="S10">
-        <v>0.3025603650635175</v>
-      </c>
-      <c r="T10">
-        <v>0.3048985532373001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>24.40323666666667</v>
-      </c>
-      <c r="H11">
-        <v>73.20971</v>
-      </c>
-      <c r="I11">
-        <v>0.303113891697197</v>
-      </c>
-      <c r="J11">
-        <v>0.3054563575278647</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M11">
-        <v>0.01667133333333333</v>
-      </c>
-      <c r="N11">
-        <v>0.050014</v>
-      </c>
-      <c r="O11">
-        <v>0.001826134165544791</v>
-      </c>
-      <c r="P11">
-        <v>0.001826134165544791</v>
-      </c>
-      <c r="Q11">
-        <v>0.4068344928822222</v>
-      </c>
-      <c r="R11">
-        <v>3.66151043594</v>
-      </c>
-      <c r="S11">
-        <v>0.000553526633679495</v>
-      </c>
-      <c r="T11">
-        <v>0.0005578042905644983</v>
+        <v>0.1614049232897091</v>
       </c>
     </row>
   </sheetData>
